--- a/data/MSME Country Indicators - Malta Summary.xlsx
+++ b/data/MSME Country Indicators - Malta Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Malta</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>44.1</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>Employment (absolute #)</t>
   </si>
   <si>
@@ -95,6 +101,15 @@
   </si>
   <si>
     <t>42.2</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>SME Performance Review EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME Performance Review EU, "SBA Fact sheet", 2013.  Available at http://ec.europa.eu/enterprise/policies/sme/facts-figures-analysis/performance-review/index_en.htm</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -113,6 +128,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -145,26 +166,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -172,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -188,114 +212,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D13" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
+      <c r="B20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Malta Summary.xlsx
+++ b/data/MSME Country Indicators - Malta Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Malta</t>
   </si>
@@ -104,6 +104,39 @@
   </si>
   <si>
     <t>71.3</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;250</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;249</t>
   </si>
   <si>
     <t>SME Performance Review EU</t>
@@ -196,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -333,14 +366,81 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>32</v>
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Malta Summary.xlsx
+++ b/data/MSME Country Indicators - Malta Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Malta</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>SME Performance Review EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SME Performance Review EU, "SBA Fact sheet", 2013.  Available at http://ec.europa.eu/enterprise/policies/sme/facts-figures-analysis/performance-review/index_en.htm</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Malta Summary.xlsx
+++ b/data/MSME Country Indicators - Malta Summary.xlsx
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>59.4</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>63</t>
+    <t>59.37</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>62.97</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>44.1</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>35.97</t>
+  </si>
+  <si>
+    <t>44.07</t>
+  </si>
+  <si>
+    <t>80.03</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>94.1</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>99.8</t>
+    <t>94.11</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>99.83</t>
   </si>
   <si>
     <t>Source: SME Performance Review EU, 2012</t>
